--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,16 +50,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -366,18 +366,18 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.7109375" customWidth="1" min="1" max="1"/>
-    <col width="49.85546875" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" width="14.7109375"/>
+    <col customWidth="1" max="2" min="2" width="49.85546875"/>
+    <col customWidth="1" max="3" min="3" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>timesheet</t>
@@ -389,23 +389,23 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1"/>
-    <row r="3" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="2"/>
+    <row customHeight="1" ht="19.5" r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1"/>
-    <row r="6" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="5"/>
+    <row customHeight="1" ht="19.5" r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>project</t>
@@ -422,7 +422,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="7">
       <c r="A7" t="inlineStr">
         <is>
           <t>week 1</t>
@@ -439,7 +439,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>week 2</t>
@@ -456,7 +456,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>week 3</t>
@@ -473,7 +473,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="10">
       <c r="A10" t="inlineStr">
         <is>
           <t>week 4</t>
@@ -490,45 +490,45 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1"/>
-    <row r="12" ht="19.5" customHeight="1"/>
-    <row r="13" ht="19.5" customHeight="1"/>
-    <row r="14" ht="19.5" customHeight="1"/>
-    <row r="15" ht="19.5" customHeight="1"/>
-    <row r="16" ht="19.5" customHeight="1"/>
-    <row r="17" ht="19.5" customHeight="1"/>
-    <row r="18" ht="19.5" customHeight="1"/>
-    <row r="19" ht="19.5" customHeight="1"/>
-    <row r="20" ht="19.5" customHeight="1"/>
-    <row r="21" ht="19.5" customHeight="1"/>
-    <row r="22" ht="19.5" customHeight="1"/>
-    <row r="23" ht="19.5" customHeight="1"/>
-    <row r="24" ht="19.5" customHeight="1"/>
-    <row r="25" ht="19.5" customHeight="1"/>
-    <row r="26" ht="19.5" customHeight="1"/>
-    <row r="27" ht="19.5" customHeight="1"/>
-    <row r="28" ht="19.5" customHeight="1"/>
-    <row r="29" ht="19.5" customHeight="1"/>
-    <row r="30" ht="19.5" customHeight="1"/>
-    <row r="31" ht="19.5" customHeight="1"/>
-    <row r="32" ht="19.5" customHeight="1"/>
-    <row r="33" ht="19.5" customHeight="1"/>
-    <row r="34" ht="19.5" customHeight="1"/>
-    <row r="35" ht="19.5" customHeight="1"/>
-    <row r="36" ht="19.5" customHeight="1"/>
-    <row r="37" ht="19.5" customHeight="1"/>
-    <row r="38" ht="19.5" customHeight="1"/>
-    <row r="39" ht="19.5" customHeight="1"/>
-    <row r="40" ht="19.5" customHeight="1"/>
-    <row r="41" ht="19.5" customHeight="1"/>
-    <row r="42" ht="19.5" customHeight="1"/>
-    <row r="43" ht="19.5" customHeight="1"/>
-    <row r="44" ht="19.5" customHeight="1"/>
-    <row r="45" ht="19.5" customHeight="1"/>
-    <row r="46" ht="19.5" customHeight="1"/>
-    <row r="47" ht="19.5" customHeight="1"/>
+    <row customHeight="1" ht="19.5" r="11"/>
+    <row customHeight="1" ht="19.5" r="12"/>
+    <row customHeight="1" ht="19.5" r="13"/>
+    <row customHeight="1" ht="19.5" r="14"/>
+    <row customHeight="1" ht="19.5" r="15"/>
+    <row customHeight="1" ht="19.5" r="16"/>
+    <row customHeight="1" ht="19.5" r="17"/>
+    <row customHeight="1" ht="19.5" r="18"/>
+    <row customHeight="1" ht="19.5" r="19"/>
+    <row customHeight="1" ht="19.5" r="20"/>
+    <row customHeight="1" ht="19.5" r="21"/>
+    <row customHeight="1" ht="19.5" r="22"/>
+    <row customHeight="1" ht="19.5" r="23"/>
+    <row customHeight="1" ht="19.5" r="24"/>
+    <row customHeight="1" ht="19.5" r="25"/>
+    <row customHeight="1" ht="19.5" r="26"/>
+    <row customHeight="1" ht="19.5" r="27"/>
+    <row customHeight="1" ht="19.5" r="28"/>
+    <row customHeight="1" ht="19.5" r="29"/>
+    <row customHeight="1" ht="19.5" r="30"/>
+    <row customHeight="1" ht="19.5" r="31"/>
+    <row customHeight="1" ht="19.5" r="32"/>
+    <row customHeight="1" ht="19.5" r="33"/>
+    <row customHeight="1" ht="19.5" r="34"/>
+    <row customHeight="1" ht="19.5" r="35"/>
+    <row customHeight="1" ht="19.5" r="36"/>
+    <row customHeight="1" ht="19.5" r="37"/>
+    <row customHeight="1" ht="19.5" r="38"/>
+    <row customHeight="1" ht="19.5" r="39"/>
+    <row customHeight="1" ht="19.5" r="40"/>
+    <row customHeight="1" ht="19.5" r="41"/>
+    <row customHeight="1" ht="19.5" r="42"/>
+    <row customHeight="1" ht="19.5" r="43"/>
+    <row customHeight="1" ht="19.5" r="44"/>
+    <row customHeight="1" ht="19.5" r="45"/>
+    <row customHeight="1" ht="19.5" r="46"/>
+    <row customHeight="1" ht="19.5" r="47"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11505" windowWidth="12435" xWindow="15480" yWindow="2280"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="May" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -367,7 +368,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -531,4 +532,141 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>timesheet</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>cnr.architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>It Worked!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>office use</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>week 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>u1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>week 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>u2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>week 3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>u3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>week 4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>u4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11505" windowWidth="12435" xWindow="15480" yWindow="2280"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15480" yWindow="2280" windowWidth="12435" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,16 +51,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -367,18 +367,18 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.7109375"/>
-    <col customWidth="1" max="2" min="2" width="49.85546875"/>
-    <col customWidth="1" max="3" min="3" width="17"/>
+    <col width="14.7109375" customWidth="1" min="1" max="1"/>
+    <col width="49.85546875" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>timesheet</t>
@@ -390,23 +390,23 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="2"/>
-    <row customHeight="1" ht="19.5" r="3">
+    <row r="2" ht="19.5" customHeight="1"/>
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="4">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="5"/>
-    <row customHeight="1" ht="19.5" r="6">
+    <row r="5" ht="19.5" customHeight="1"/>
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>project</t>
@@ -423,7 +423,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="7">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>week 1</t>
@@ -440,7 +440,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="8">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>week 2</t>
@@ -457,7 +457,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="9">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>week 3</t>
@@ -474,7 +474,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="10">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>week 4</t>
@@ -491,45 +491,45 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="11"/>
-    <row customHeight="1" ht="19.5" r="12"/>
-    <row customHeight="1" ht="19.5" r="13"/>
-    <row customHeight="1" ht="19.5" r="14"/>
-    <row customHeight="1" ht="19.5" r="15"/>
-    <row customHeight="1" ht="19.5" r="16"/>
-    <row customHeight="1" ht="19.5" r="17"/>
-    <row customHeight="1" ht="19.5" r="18"/>
-    <row customHeight="1" ht="19.5" r="19"/>
-    <row customHeight="1" ht="19.5" r="20"/>
-    <row customHeight="1" ht="19.5" r="21"/>
-    <row customHeight="1" ht="19.5" r="22"/>
-    <row customHeight="1" ht="19.5" r="23"/>
-    <row customHeight="1" ht="19.5" r="24"/>
-    <row customHeight="1" ht="19.5" r="25"/>
-    <row customHeight="1" ht="19.5" r="26"/>
-    <row customHeight="1" ht="19.5" r="27"/>
-    <row customHeight="1" ht="19.5" r="28"/>
-    <row customHeight="1" ht="19.5" r="29"/>
-    <row customHeight="1" ht="19.5" r="30"/>
-    <row customHeight="1" ht="19.5" r="31"/>
-    <row customHeight="1" ht="19.5" r="32"/>
-    <row customHeight="1" ht="19.5" r="33"/>
-    <row customHeight="1" ht="19.5" r="34"/>
-    <row customHeight="1" ht="19.5" r="35"/>
-    <row customHeight="1" ht="19.5" r="36"/>
-    <row customHeight="1" ht="19.5" r="37"/>
-    <row customHeight="1" ht="19.5" r="38"/>
-    <row customHeight="1" ht="19.5" r="39"/>
-    <row customHeight="1" ht="19.5" r="40"/>
-    <row customHeight="1" ht="19.5" r="41"/>
-    <row customHeight="1" ht="19.5" r="42"/>
-    <row customHeight="1" ht="19.5" r="43"/>
-    <row customHeight="1" ht="19.5" r="44"/>
-    <row customHeight="1" ht="19.5" r="45"/>
-    <row customHeight="1" ht="19.5" r="46"/>
-    <row customHeight="1" ht="19.5" r="47"/>
+    <row r="11" ht="19.5" customHeight="1"/>
+    <row r="12" ht="19.5" customHeight="1"/>
+    <row r="13" ht="19.5" customHeight="1"/>
+    <row r="14" ht="19.5" customHeight="1"/>
+    <row r="15" ht="19.5" customHeight="1"/>
+    <row r="16" ht="19.5" customHeight="1"/>
+    <row r="17" ht="19.5" customHeight="1"/>
+    <row r="18" ht="19.5" customHeight="1"/>
+    <row r="19" ht="19.5" customHeight="1"/>
+    <row r="20" ht="19.5" customHeight="1"/>
+    <row r="21" ht="19.5" customHeight="1"/>
+    <row r="22" ht="19.5" customHeight="1"/>
+    <row r="23" ht="19.5" customHeight="1"/>
+    <row r="24" ht="19.5" customHeight="1"/>
+    <row r="25" ht="19.5" customHeight="1"/>
+    <row r="26" ht="19.5" customHeight="1"/>
+    <row r="27" ht="19.5" customHeight="1"/>
+    <row r="28" ht="19.5" customHeight="1"/>
+    <row r="29" ht="19.5" customHeight="1"/>
+    <row r="30" ht="19.5" customHeight="1"/>
+    <row r="31" ht="19.5" customHeight="1"/>
+    <row r="32" ht="19.5" customHeight="1"/>
+    <row r="33" ht="19.5" customHeight="1"/>
+    <row r="34" ht="19.5" customHeight="1"/>
+    <row r="35" ht="19.5" customHeight="1"/>
+    <row r="36" ht="19.5" customHeight="1"/>
+    <row r="37" ht="19.5" customHeight="1"/>
+    <row r="38" ht="19.5" customHeight="1"/>
+    <row r="39" ht="19.5" customHeight="1"/>
+    <row r="40" ht="19.5" customHeight="1"/>
+    <row r="41" ht="19.5" customHeight="1"/>
+    <row r="42" ht="19.5" customHeight="1"/>
+    <row r="43" ht="19.5" customHeight="1"/>
+    <row r="44" ht="19.5" customHeight="1"/>
+    <row r="45" ht="19.5" customHeight="1"/>
+    <row r="46" ht="19.5" customHeight="1"/>
+    <row r="47" ht="19.5" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
@@ -540,10 +540,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -560,13 +560,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>It Worked!!</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -601,72 +594,389 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>week 1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>d1</t>
+          <t>efwef</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>u1</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>week 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>u2</t>
+          <t>week1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>week 3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>u3</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>week 4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>d4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>u4</t>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>week2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>week3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>week4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15480" yWindow="2280" windowWidth="12435" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15375" yWindow="2625" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -365,10 +365,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -423,74 +423,10 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>week 1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>u1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>week 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>u2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>week 3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>d3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>u3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>week 4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>d4</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>u4</t>
-        </is>
-      </c>
-    </row>
+    <row r="7" ht="19.5" customHeight="1"/>
+    <row r="8" ht="19.5" customHeight="1"/>
+    <row r="9" ht="19.5" customHeight="1"/>
+    <row r="10" ht="19.5" customHeight="1"/>
     <row r="11" ht="19.5" customHeight="1"/>
     <row r="12" ht="19.5" customHeight="1"/>
     <row r="13" ht="19.5" customHeight="1"/>
@@ -540,10 +476,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -560,6 +496,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -574,6 +511,7 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -594,383 +532,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>efwef</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>Week4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>week1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>week2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>week3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>week4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>works!!!!</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>*</t>
         </is>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,14 @@
       <color theme="1"/>
       <sz val="16"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="32"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,9 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +495,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>timesheet</t>
         </is>
@@ -496,7 +506,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -511,7 +520,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -544,10 +552,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>works!!!!</t>
+          <t>Hill Villa Markups</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>*</t>
         </is>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="15375" yWindow="2625" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14775" yWindow="1935" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="May" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,12 +33,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="32"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+      <color theme="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Bell MT"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="5"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Bauhaus 93"/>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="New Times Roman"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,15 +87,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,12 +448,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.7109375" customWidth="1" min="1" max="1"/>
+    <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="49.85546875" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
   </cols>
@@ -391,12 +461,12 @@
     <row r="1" ht="19.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>timesheet</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>cnr.architects</t>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>CNR.Architects</t>
         </is>
       </c>
     </row>
@@ -404,14 +474,14 @@
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>MONTH:</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>NAME:</t>
         </is>
       </c>
     </row>
@@ -419,17 +489,17 @@
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>PROJECT</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>DESCRIPTION OF WORK</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>office use</t>
+          <t>OFFICE USE</t>
         </is>
       </c>
     </row>
@@ -486,93 +556,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>timesheet</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>cnr.architects</t>
-        </is>
-      </c>
-    </row>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>.Architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>MONTH:</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
+          <t>NAME:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>office use</t>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>PROJECT</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>DESCRIPTION OF WORK</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>OFFICE USE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Week4</t>
-        </is>
-      </c>
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Week1</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hill Villa Markups</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>*</t>
         </is>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,23 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,23 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>ewerwerwerw</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -1,53 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\PycharmProjects\auto_timesheet\timesheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887EB92B-3AE6-42F5-951B-6686ACF2EFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14790" yWindow="2205" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="June" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+  <si>
+    <t>TIMESHEET</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>.Architects</t>
+  </si>
+  <si>
+    <t>MONTH:</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>NAME:</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF WORK</t>
+  </si>
+  <si>
+    <t>OFFICE USE</t>
+  </si>
+  <si>
+    <t>June 2020</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="18"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="Bauhaus 93"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="16"/>
       <name val="New Times Roman"/>
-      <sz val="16"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,31 +115,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -96,28 +148,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,125 +478,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>TIMESHEET</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>.Architects</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" s="1"/>
-    <row r="3" ht="19.5" customHeight="1" s="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MONTH:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" s="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAME:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" s="1"/>
-    <row r="6" ht="19.5" customHeight="1" s="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PROJECT</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DESCRIPTION OF WORK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OFFICE USE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" s="1"/>
-    <row r="8" ht="19.5" customHeight="1" s="1"/>
-    <row r="9" ht="19.5" customHeight="1" s="1"/>
-    <row r="10" ht="19.5" customHeight="1" s="1"/>
-    <row r="11" ht="19.5" customHeight="1" s="1"/>
-    <row r="12" ht="19.5" customHeight="1" s="1"/>
-    <row r="13" ht="19.5" customHeight="1" s="1"/>
-    <row r="14" ht="19.5" customHeight="1" s="1"/>
-    <row r="15" ht="19.5" customHeight="1" s="1"/>
-    <row r="16" ht="19.5" customHeight="1" s="1"/>
-    <row r="17" ht="19.5" customHeight="1" s="1"/>
-    <row r="18" ht="19.5" customHeight="1" s="1"/>
-    <row r="19" ht="19.5" customHeight="1" s="1"/>
-    <row r="20" ht="19.5" customHeight="1" s="1"/>
-    <row r="21" ht="19.5" customHeight="1" s="1"/>
-    <row r="22" ht="19.5" customHeight="1" s="1"/>
-    <row r="23" ht="19.5" customHeight="1" s="1"/>
-    <row r="24" ht="19.5" customHeight="1" s="1"/>
-    <row r="25" ht="19.5" customHeight="1" s="1"/>
-    <row r="26" ht="19.5" customHeight="1" s="1"/>
-    <row r="27" ht="19.5" customHeight="1" s="1"/>
-    <row r="28" ht="19.5" customHeight="1" s="1"/>
-    <row r="29" ht="19.5" customHeight="1" s="1"/>
-    <row r="30" ht="19.5" customHeight="1" s="1"/>
-    <row r="31" ht="19.5" customHeight="1" s="1"/>
-    <row r="32" ht="19.5" customHeight="1" s="1"/>
-    <row r="33" ht="19.5" customHeight="1" s="1"/>
-    <row r="34" ht="19.5" customHeight="1" s="1"/>
-    <row r="35" ht="19.5" customHeight="1" s="1"/>
-    <row r="36" ht="19.5" customHeight="1" s="1"/>
-    <row r="37" ht="19.5" customHeight="1" s="1"/>
-    <row r="38" ht="19.5" customHeight="1" s="1"/>
-    <row r="39" ht="19.5" customHeight="1" s="1"/>
-    <row r="40" ht="19.5" customHeight="1" s="1"/>
-    <row r="41" ht="19.5" customHeight="1" s="1"/>
-    <row r="42" ht="19.5" customHeight="1" s="1"/>
-    <row r="43" ht="19.5" customHeight="1" s="1"/>
-    <row r="44" ht="19.5" customHeight="1" s="1"/>
-    <row r="45" ht="19.5" customHeight="1" s="1"/>
-    <row r="46" ht="19.5" customHeight="1" s="1"/>
-    <row r="47" ht="19.5" customHeight="1" s="1"/>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="17" ht="19.5" customHeight="1"/>
+    <row r="18" ht="19.5" customHeight="1"/>
+    <row r="19" ht="19.5" customHeight="1"/>
+    <row r="20" ht="19.5" customHeight="1"/>
+    <row r="21" ht="19.5" customHeight="1"/>
+    <row r="22" ht="19.5" customHeight="1"/>
+    <row r="23" ht="19.5" customHeight="1"/>
+    <row r="24" ht="19.5" customHeight="1"/>
+    <row r="25" ht="19.5" customHeight="1"/>
+    <row r="26" ht="19.5" customHeight="1"/>
+    <row r="27" ht="19.5" customHeight="1"/>
+    <row r="28" ht="19.5" customHeight="1"/>
+    <row r="29" ht="19.5" customHeight="1"/>
+    <row r="30" ht="19.5" customHeight="1"/>
+    <row r="31" ht="19.5" customHeight="1"/>
+    <row r="32" ht="19.5" customHeight="1"/>
+    <row r="33" ht="19.5" customHeight="1"/>
+    <row r="34" ht="19.5" customHeight="1"/>
+    <row r="35" ht="19.5" customHeight="1"/>
+    <row r="36" ht="19.5" customHeight="1"/>
+    <row r="37" ht="19.5" customHeight="1"/>
+    <row r="38" ht="19.5" customHeight="1"/>
+    <row r="39" ht="19.5" customHeight="1"/>
+    <row r="40" ht="19.5" customHeight="1"/>
+    <row r="41" ht="19.5" customHeight="1"/>
+    <row r="42" ht="19.5" customHeight="1"/>
+    <row r="43" ht="19.5" customHeight="1"/>
+    <row r="44" ht="19.5" customHeight="1"/>
+    <row r="45" ht="19.5" customHeight="1"/>
+    <row r="46" ht="19.5" customHeight="1"/>
+    <row r="47" ht="19.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -543,140 +580,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" style="1" min="1" max="1"/>
-    <col width="48" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>TIMESHEET</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>.Architects</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MONTH:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>June 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAME:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bernard Muller</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>PROJECT</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>DESCRIPTION OF WORK</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>OFFICE USE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Week2</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Beach Villa</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>weekend</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>ewerwerwerw</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
+    <row r="1" spans="1:3" ht="24.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\PycharmProjects\auto_timesheet\timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887EB92B-3AE6-42F5-951B-6686ACF2EFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B11028-82CA-4617-8C75-A9E260B1B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="-120" windowWidth="12885" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>TIMESHEET</t>
   </si>
@@ -53,13 +53,16 @@
     <t>June 2020</t>
   </si>
   <si>
+    <t>Bernard Muller</t>
+  </si>
+  <si>
     <t>Week3</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>code</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>qwerty</t>
   </si>
   <si>
     <t>*</t>
@@ -583,9 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -618,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -634,20 +635,20 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -1,114 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\PycharmProjects\auto_timesheet\timesheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B11028-82CA-4617-8C75-A9E260B1B457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="-120" windowWidth="12885" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7290" yWindow="-120" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="June" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>TIMESHEET</t>
-  </si>
-  <si>
-    <t>CNR</t>
-  </si>
-  <si>
-    <t>.Architects</t>
-  </si>
-  <si>
-    <t>MONTH:</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>NAME:</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>DESCRIPTION OF WORK</t>
-  </si>
-  <si>
-    <t>OFFICE USE</t>
-  </si>
-  <si>
-    <t>June 2020</t>
-  </si>
-  <si>
-    <t>Bernard Muller</t>
-  </si>
-  <si>
-    <t>Week3</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="18"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Bauhaus 93"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="Bauhaus 93"/>
     </font>
     <font>
+      <name val="New Times Roman"/>
       <sz val="16"/>
-      <name val="New Times Roman"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="16"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,42 +91,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -481,101 +451,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="19.5" customHeight="1"/>
-    <row r="17" ht="19.5" customHeight="1"/>
-    <row r="18" ht="19.5" customHeight="1"/>
-    <row r="19" ht="19.5" customHeight="1"/>
-    <row r="20" ht="19.5" customHeight="1"/>
-    <row r="21" ht="19.5" customHeight="1"/>
-    <row r="22" ht="19.5" customHeight="1"/>
-    <row r="23" ht="19.5" customHeight="1"/>
-    <row r="24" ht="19.5" customHeight="1"/>
-    <row r="25" ht="19.5" customHeight="1"/>
-    <row r="26" ht="19.5" customHeight="1"/>
-    <row r="27" ht="19.5" customHeight="1"/>
-    <row r="28" ht="19.5" customHeight="1"/>
-    <row r="29" ht="19.5" customHeight="1"/>
-    <row r="30" ht="19.5" customHeight="1"/>
-    <row r="31" ht="19.5" customHeight="1"/>
-    <row r="32" ht="19.5" customHeight="1"/>
-    <row r="33" ht="19.5" customHeight="1"/>
-    <row r="34" ht="19.5" customHeight="1"/>
-    <row r="35" ht="19.5" customHeight="1"/>
-    <row r="36" ht="19.5" customHeight="1"/>
-    <row r="37" ht="19.5" customHeight="1"/>
-    <row r="38" ht="19.5" customHeight="1"/>
-    <row r="39" ht="19.5" customHeight="1"/>
-    <row r="40" ht="19.5" customHeight="1"/>
-    <row r="41" ht="19.5" customHeight="1"/>
-    <row r="42" ht="19.5" customHeight="1"/>
-    <row r="43" ht="19.5" customHeight="1"/>
-    <row r="44" ht="19.5" customHeight="1"/>
-    <row r="45" ht="19.5" customHeight="1"/>
-    <row r="46" ht="19.5" customHeight="1"/>
-    <row r="47" ht="19.5" customHeight="1"/>
+    <row r="1" ht="19.5" customHeight="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>.Architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" s="1"/>
+    <row r="3" ht="19.5" customHeight="1" s="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MONTH:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" s="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAME:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" s="1"/>
+    <row r="6" ht="19.5" customHeight="1" s="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PROJECT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DESCRIPTION OF WORK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" s="1"/>
+    <row r="8" ht="19.5" customHeight="1" s="1"/>
+    <row r="9" ht="19.5" customHeight="1" s="1"/>
+    <row r="10" ht="19.5" customHeight="1" s="1"/>
+    <row r="11" ht="19.5" customHeight="1" s="1"/>
+    <row r="12" ht="19.5" customHeight="1" s="1"/>
+    <row r="13" ht="19.5" customHeight="1" s="1"/>
+    <row r="14" ht="19.5" customHeight="1" s="1"/>
+    <row r="15" ht="19.5" customHeight="1" s="1"/>
+    <row r="16" ht="19.5" customHeight="1" s="1"/>
+    <row r="17" ht="19.5" customHeight="1" s="1"/>
+    <row r="18" ht="19.5" customHeight="1" s="1"/>
+    <row r="19" ht="19.5" customHeight="1" s="1"/>
+    <row r="20" ht="19.5" customHeight="1" s="1"/>
+    <row r="21" ht="19.5" customHeight="1" s="1"/>
+    <row r="22" ht="19.5" customHeight="1" s="1"/>
+    <row r="23" ht="19.5" customHeight="1" s="1"/>
+    <row r="24" ht="19.5" customHeight="1" s="1"/>
+    <row r="25" ht="19.5" customHeight="1" s="1"/>
+    <row r="26" ht="19.5" customHeight="1" s="1"/>
+    <row r="27" ht="19.5" customHeight="1" s="1"/>
+    <row r="28" ht="19.5" customHeight="1" s="1"/>
+    <row r="29" ht="19.5" customHeight="1" s="1"/>
+    <row r="30" ht="19.5" customHeight="1" s="1"/>
+    <row r="31" ht="19.5" customHeight="1" s="1"/>
+    <row r="32" ht="19.5" customHeight="1" s="1"/>
+    <row r="33" ht="19.5" customHeight="1" s="1"/>
+    <row r="34" ht="19.5" customHeight="1" s="1"/>
+    <row r="35" ht="19.5" customHeight="1" s="1"/>
+    <row r="36" ht="19.5" customHeight="1" s="1"/>
+    <row r="37" ht="19.5" customHeight="1" s="1"/>
+    <row r="38" ht="19.5" customHeight="1" s="1"/>
+    <row r="39" ht="19.5" customHeight="1" s="1"/>
+    <row r="40" ht="19.5" customHeight="1" s="1"/>
+    <row r="41" ht="19.5" customHeight="1" s="1"/>
+    <row r="42" ht="19.5" customHeight="1" s="1"/>
+    <row r="43" ht="19.5" customHeight="1" s="1"/>
+    <row r="44" ht="19.5" customHeight="1" s="1"/>
+    <row r="45" ht="19.5" customHeight="1" s="1"/>
+    <row r="46" ht="19.5" customHeight="1" s="1"/>
+    <row r="47" ht="19.5" customHeight="1" s="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -583,72 +577,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col width="17" customWidth="1" style="1" min="1" max="1"/>
+    <col width="48" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.75">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
+    <row r="1" ht="24.75" customHeight="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>TIMESHEET</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>.Architects</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MONTH:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>June 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NAME:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bernard Muller</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" s="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>PROJECT</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>DESCRIPTION OF WORK</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>OFFICE USE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>Week3</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/timesheets/2020_timeheets.xlsx
+++ b/timesheets/2020_timeheets.xlsx
@@ -1,59 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\PycharmProjects\auto_timesheet\timesheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4C39D2-3D82-4EAA-909D-23ED44A8B523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7290" yWindow="-120" windowWidth="12885" windowHeight="11505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="June" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="June" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>TIMESHEET</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>.Architects</t>
+  </si>
+  <si>
+    <t>MONTH:</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>NAME:</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF WORK</t>
+  </si>
+  <si>
+    <t>OFFICE USE</t>
+  </si>
+  <si>
+    <t>cnr</t>
+  </si>
+  <si>
+    <t>June 2020</t>
+  </si>
+  <si>
+    <t>Bernard Muller</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="18"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="Bauhaus 93"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="16"/>
       <name val="New Times Roman"/>
-      <sz val="16"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,67 +149,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,125 +484,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>TIMESHEET</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>.Architects</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" s="1"/>
-    <row r="3" ht="19.5" customHeight="1" s="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MONTH:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" s="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAME:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xxx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" s="1"/>
-    <row r="6" ht="19.5" customHeight="1" s="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PROJECT</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DESCRIPTION OF WORK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>OFFICE USE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" s="1"/>
-    <row r="8" ht="19.5" customHeight="1" s="1"/>
-    <row r="9" ht="19.5" customHeight="1" s="1"/>
-    <row r="10" ht="19.5" customHeight="1" s="1"/>
-    <row r="11" ht="19.5" customHeight="1" s="1"/>
-    <row r="12" ht="19.5" customHeight="1" s="1"/>
-    <row r="13" ht="19.5" customHeight="1" s="1"/>
-    <row r="14" ht="19.5" customHeight="1" s="1"/>
-    <row r="15" ht="19.5" customHeight="1" s="1"/>
-    <row r="16" ht="19.5" customHeight="1" s="1"/>
-    <row r="17" ht="19.5" customHeight="1" s="1"/>
-    <row r="18" ht="19.5" customHeight="1" s="1"/>
-    <row r="19" ht="19.5" customHeight="1" s="1"/>
-    <row r="20" ht="19.5" customHeight="1" s="1"/>
-    <row r="21" ht="19.5" customHeight="1" s="1"/>
-    <row r="22" ht="19.5" customHeight="1" s="1"/>
-    <row r="23" ht="19.5" customHeight="1" s="1"/>
-    <row r="24" ht="19.5" customHeight="1" s="1"/>
-    <row r="25" ht="19.5" customHeight="1" s="1"/>
-    <row r="26" ht="19.5" customHeight="1" s="1"/>
-    <row r="27" ht="19.5" customHeight="1" s="1"/>
-    <row r="28" ht="19.5" customHeight="1" s="1"/>
-    <row r="29" ht="19.5" customHeight="1" s="1"/>
-    <row r="30" ht="19.5" customHeight="1" s="1"/>
-    <row r="31" ht="19.5" customHeight="1" s="1"/>
-    <row r="32" ht="19.5" customHeight="1" s="1"/>
-    <row r="33" ht="19.5" customHeight="1" s="1"/>
-    <row r="34" ht="19.5" customHeight="1" s="1"/>
-    <row r="35" ht="19.5" customHeight="1" s="1"/>
-    <row r="36" ht="19.5" customHeight="1" s="1"/>
-    <row r="37" ht="19.5" customHeight="1" s="1"/>
-    <row r="38" ht="19.5" customHeight="1" s="1"/>
-    <row r="39" ht="19.5" customHeight="1" s="1"/>
-    <row r="40" ht="19.5" customHeight="1" s="1"/>
-    <row r="41" ht="19.5" customHeight="1" s="1"/>
-    <row r="42" ht="19.5" customHeight="1" s="1"/>
-    <row r="43" ht="19.5" customHeight="1" s="1"/>
-    <row r="44" ht="19.5" customHeight="1" s="1"/>
-    <row r="45" ht="19.5" customHeight="1" s="1"/>
-    <row r="46" ht="19.5" customHeight="1" s="1"/>
-    <row r="47" ht="19.5" customHeight="1" s="1"/>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1"/>
+    <row r="17" ht="19.5" customHeight="1"/>
+    <row r="18" ht="19.5" customHeight="1"/>
+    <row r="19" ht="19.5" customHeight="1"/>
+    <row r="20" ht="19.5" customHeight="1"/>
+    <row r="21" ht="19.5" customHeight="1"/>
+    <row r="22" ht="19.5" customHeight="1"/>
+    <row r="23" ht="19.5" customHeight="1"/>
+    <row r="24" ht="19.5" customHeight="1"/>
+    <row r="25" ht="19.5" customHeight="1"/>
+    <row r="26" ht="19.5" customHeight="1"/>
+    <row r="27" ht="19.5" customHeight="1"/>
+    <row r="28" ht="19.5" customHeight="1"/>
+    <row r="29" ht="19.5" customHeight="1"/>
+    <row r="30" ht="19.5" customHeight="1"/>
+    <row r="31" ht="19.5" customHeight="1"/>
+    <row r="32" ht="19.5" customHeight="1"/>
+    <row r="33" ht="19.5" customHeight="1"/>
+    <row r="34" ht="19.5" customHeight="1"/>
+    <row r="35" ht="19.5" customHeight="1"/>
+    <row r="36" ht="19.5" customHeight="1"/>
+    <row r="37" ht="19.5" customHeight="1"/>
+    <row r="38" ht="19.5" customHeight="1"/>
+    <row r="39" ht="19.5" customHeight="1"/>
+    <row r="40" ht="19.5" customHeight="1"/>
+    <row r="41" ht="19.5" customHeight="1"/>
+    <row r="42" ht="19.5" customHeight="1"/>
+    <row r="43" ht="19.5" customHeight="1"/>
+    <row r="44" ht="19.5" customHeight="1"/>
+    <row r="45" ht="19.5" customHeight="1"/>
+    <row r="46" ht="19.5" customHeight="1"/>
+    <row r="47" ht="19.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -577,107 +586,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" style="1" min="1" max="1"/>
-    <col width="48" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" s="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>TIMESHEET</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CNR</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>.Architects</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MONTH:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>June 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NAME:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bernard Muller</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" s="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>PROJECT</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>DESCRIPTION OF WORK</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>OFFICE USE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>Week3</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
